--- a/budgeteer-report-exporter/test-mapping.xlsx
+++ b/budgeteer-report-exporter/test-mapping.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>{flag:warning1}</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>{test} - {foo}</t>
+  </si>
+  <si>
+    <t>{dynamic.name}</t>
   </si>
 </sst>
 </file>
@@ -481,7 +484,7 @@
   <dimension ref="A5:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,6 +498,9 @@
       </c>
       <c r="C5" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>6</v>

--- a/budgeteer-report-exporter/test-mapping.xlsx
+++ b/budgeteer-report-exporter/test-mapping.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>{flag:warning1}</t>
   </si>
@@ -55,6 +55,21 @@
   </si>
   <si>
     <t>{dynamic.name}</t>
+  </si>
+  <si>
+    <t>{dynamic.vorname}</t>
+  </si>
+  <si>
+    <t>{dynamic.nachname}</t>
+  </si>
+  <si>
+    <t>{dynamic.nachname}, {dynamic.vorname}</t>
+  </si>
+  <si>
+    <t>Eine tolle überschrfit</t>
+  </si>
+  <si>
+    <t>Ein Footer</t>
   </si>
 </sst>
 </file>
@@ -481,14 +496,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:S5"/>
+  <dimension ref="A3:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
@@ -508,8 +528,22 @@
       <c r="F5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
       <c r="S5" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
